--- a/output/part3/3. ff5_with_ratio_result.xlsx
+++ b/output/part3/3. ff5_with_ratio_result.xlsx
@@ -462,35 +462,35 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005540404492314206</v>
+        <v>0.001493528777285729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005121478373650843</v>
+        <v>0.001505439484734438</v>
       </c>
       <c r="D2" t="n">
-        <v>1.081797888831996</v>
+        <v>0.9920882190420226</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2803147775903017</v>
+        <v>0.3220594869213804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>mkt_loading</t>
+          <t>risk_premium_loading</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.182553140606749e-05</v>
+        <v>0.0009327871112831983</v>
       </c>
       <c r="C3" t="n">
-        <v>2.875735138565438e-05</v>
+        <v>0.001490492401661172</v>
       </c>
       <c r="D3" t="n">
-        <v>1.106692023867805</v>
+        <v>0.6258248014170322</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2694194738788054</v>
+        <v>0.5319684842908579</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001883462299313351</v>
+        <v>0.0006827084283398221</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004041659827307728</v>
+        <v>0.001154742681357698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04660120791432321</v>
+        <v>0.5912212645826185</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9628657756684538</v>
+        <v>0.5548761305006916</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0005597089930903873</v>
+        <v>-0.0004398163327372801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002039815271111114</v>
+        <v>0.0009808180329088762</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2743920005979299</v>
+        <v>-0.4484178695541394</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7839947767187045</v>
+        <v>0.6542180696823903</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003981779257881549</v>
+        <v>-0.001712836540943812</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005752613204105818</v>
+        <v>0.001100375352562837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6921687790584685</v>
+        <v>-1.556592972529345</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4894306011579991</v>
+        <v>0.1207605872464187</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003063414311995558</v>
+        <v>0.0007440510587656056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002980292194398202</v>
+        <v>0.001152265788093692</v>
       </c>
       <c r="D7" t="n">
-        <v>1.027890593329605</v>
+        <v>0.6457286734135909</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3049281070507042</v>
+        <v>0.5190138236688306</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.247892505922098e-05</v>
+        <v>-0.000486876766125455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001302269409551507</v>
+        <v>0.0007939042766271795</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4797695822459527</v>
+        <v>-0.6132688542677975</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6317825501100021</v>
+        <v>0.5402245789510778</v>
       </c>
     </row>
   </sheetData>

--- a/output/part3/3. ff5_with_ratio_result.xlsx
+++ b/output/part3/3. ff5_with_ratio_result.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001493528777285729</v>
+        <v>0.001010417105714849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001505439484734438</v>
+        <v>0.001491881423844169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9920882190420226</v>
+        <v>0.6772770875524954</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3220594869213804</v>
+        <v>0.4987974572136392</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009327871112831983</v>
+        <v>0.000615072508847812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001490492401661172</v>
+        <v>0.001439425750814003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6258248014170322</v>
+        <v>0.4273040888006799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5319684842908579</v>
+        <v>0.669491023202812</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006827084283398221</v>
+        <v>0.0001763632011540583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001154742681357698</v>
+        <v>0.001010727141698234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5912212645826185</v>
+        <v>0.1744914071049196</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5548761305006916</v>
+        <v>0.8616072088886534</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0004398163327372801</v>
+        <v>0.000595339267480079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009808180329088762</v>
+        <v>0.0009960394426274586</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4484178695541394</v>
+        <v>0.5977065184382958</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6542180696823903</v>
+        <v>0.5505258641094708</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001712836540943812</v>
+        <v>-0.0004855840539080102</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001100375352562837</v>
+        <v>0.001210166318864499</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.556592972529345</v>
+        <v>-0.4012539816540546</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1207605872464187</v>
+        <v>0.6885436232795072</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007440510587656056</v>
+        <v>-0.001171336343162822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001152265788093692</v>
+        <v>0.001041713409716683</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6457286734135909</v>
+        <v>-1.124432432410938</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5190138236688306</v>
+        <v>0.2618065849890336</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.000486876766125455</v>
+        <v>-0.0008948043711856627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007939042766271795</v>
+        <v>0.0007839540372837936</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6132688542677975</v>
+        <v>-1.141399021664507</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5402245789510778</v>
+        <v>0.254693250094395</v>
       </c>
     </row>
   </sheetData>
